--- a/documentation/IW_Control_Grupo.xlsx
+++ b/documentation/IW_Control_Grupo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chispita\Documents\Cursos\Quinto\IngenieriaWeb\UrlShortener\UrlShortener\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA5B7C9-0B24-314F-A31D-39B8C034AA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2945A9DB-96FE-47D1-923D-0AB1E706B0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Descripción de la actividad</t>
   </si>
@@ -133,12 +141,27 @@
   </si>
   <si>
     <t>entrega del proyecto</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>2 Plan de producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
@@ -460,24 +483,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,16 +514,62 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2553D34D-8726-487B-80C5-65E2E78AA894}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -793,23 +844,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:DS14"/>
+  <dimension ref="B1:DS21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" customWidth="1"/>
-    <col min="11" max="122" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.125" customWidth="1"/>
+    <col min="11" max="122" width="3.125" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:123" x14ac:dyDescent="0.25">
       <c r="D1" s="28" t="s">
         <v>29</v>
       </c>
@@ -937,144 +988,144 @@
       </c>
       <c r="DO1" s="29"/>
       <c r="DP1" s="29"/>
-      <c r="DQ1" s="72"/>
-      <c r="DR1" s="72"/>
-      <c r="DS1" s="73"/>
+      <c r="DQ1" s="66"/>
+      <c r="DR1" s="66"/>
+      <c r="DS1" s="67"/>
     </row>
-    <row r="2" spans="2:123" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:123" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="6"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54" t="s">
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="54"/>
-      <c r="BK2" s="54"/>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="54"/>
-      <c r="BR2" s="54"/>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="54"/>
-      <c r="BY2" s="54" t="s">
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="73"/>
+      <c r="BD2" s="73"/>
+      <c r="BE2" s="73"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="73"/>
+      <c r="BH2" s="73"/>
+      <c r="BI2" s="73"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="73"/>
+      <c r="BL2" s="73"/>
+      <c r="BM2" s="73"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="73"/>
+      <c r="BP2" s="73"/>
+      <c r="BQ2" s="73"/>
+      <c r="BR2" s="73"/>
+      <c r="BS2" s="73"/>
+      <c r="BT2" s="73"/>
+      <c r="BU2" s="73"/>
+      <c r="BV2" s="73"/>
+      <c r="BW2" s="73"/>
+      <c r="BX2" s="73"/>
+      <c r="BY2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
-      <c r="CC2" s="54"/>
-      <c r="CD2" s="54"/>
-      <c r="CE2" s="54"/>
-      <c r="CF2" s="54"/>
-      <c r="CG2" s="54"/>
-      <c r="CH2" s="54"/>
-      <c r="CI2" s="54"/>
-      <c r="CJ2" s="54"/>
-      <c r="CK2" s="54"/>
-      <c r="CL2" s="54"/>
-      <c r="CM2" s="54"/>
-      <c r="CN2" s="54"/>
-      <c r="CO2" s="54"/>
-      <c r="CP2" s="54"/>
-      <c r="CQ2" s="54"/>
-      <c r="CR2" s="54"/>
-      <c r="CS2" s="54"/>
-      <c r="CT2" s="54"/>
-      <c r="CU2" s="54"/>
-      <c r="CV2" s="54"/>
-      <c r="CW2" s="54"/>
-      <c r="CX2" s="54"/>
-      <c r="CY2" s="54"/>
-      <c r="CZ2" s="54"/>
-      <c r="DA2" s="54"/>
-      <c r="DB2" s="54"/>
-      <c r="DC2" s="54"/>
-      <c r="DD2" s="49" t="s">
+      <c r="BZ2" s="73"/>
+      <c r="CA2" s="73"/>
+      <c r="CB2" s="73"/>
+      <c r="CC2" s="73"/>
+      <c r="CD2" s="73"/>
+      <c r="CE2" s="73"/>
+      <c r="CF2" s="73"/>
+      <c r="CG2" s="73"/>
+      <c r="CH2" s="73"/>
+      <c r="CI2" s="73"/>
+      <c r="CJ2" s="73"/>
+      <c r="CK2" s="73"/>
+      <c r="CL2" s="73"/>
+      <c r="CM2" s="73"/>
+      <c r="CN2" s="73"/>
+      <c r="CO2" s="73"/>
+      <c r="CP2" s="73"/>
+      <c r="CQ2" s="73"/>
+      <c r="CR2" s="73"/>
+      <c r="CS2" s="73"/>
+      <c r="CT2" s="73"/>
+      <c r="CU2" s="73"/>
+      <c r="CV2" s="73"/>
+      <c r="CW2" s="73"/>
+      <c r="CX2" s="73"/>
+      <c r="CY2" s="73"/>
+      <c r="CZ2" s="73"/>
+      <c r="DA2" s="73"/>
+      <c r="DB2" s="73"/>
+      <c r="DC2" s="73"/>
+      <c r="DD2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="DE2" s="50"/>
-      <c r="DF2" s="50"/>
-      <c r="DG2" s="50"/>
-      <c r="DH2" s="50"/>
-      <c r="DI2" s="50"/>
-      <c r="DJ2" s="50"/>
-      <c r="DK2" s="50"/>
-      <c r="DL2" s="50"/>
-      <c r="DM2" s="50"/>
-      <c r="DN2" s="50"/>
-      <c r="DO2" s="50"/>
-      <c r="DP2" s="50"/>
-      <c r="DQ2" s="50"/>
-      <c r="DR2" s="50"/>
-      <c r="DS2" s="51"/>
+      <c r="DE2" s="69"/>
+      <c r="DF2" s="69"/>
+      <c r="DG2" s="69"/>
+      <c r="DH2" s="69"/>
+      <c r="DI2" s="69"/>
+      <c r="DJ2" s="69"/>
+      <c r="DK2" s="69"/>
+      <c r="DL2" s="69"/>
+      <c r="DM2" s="69"/>
+      <c r="DN2" s="69"/>
+      <c r="DO2" s="69"/>
+      <c r="DP2" s="69"/>
+      <c r="DQ2" s="69"/>
+      <c r="DR2" s="69"/>
+      <c r="DS2" s="70"/>
     </row>
-    <row r="3" spans="2:123" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:123" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1219,7 @@
         <f t="shared" si="0"/>
         <v>44112</v>
       </c>
-      <c r="Z3" s="55">
+      <c r="Z3" s="49">
         <f t="shared" si="0"/>
         <v>44113</v>
       </c>
@@ -1180,15 +1231,15 @@
         <f t="shared" si="0"/>
         <v>44115</v>
       </c>
-      <c r="AC3" s="58">
+      <c r="AC3" s="52">
         <f t="shared" si="0"/>
         <v>44116</v>
       </c>
-      <c r="AD3" s="58">
+      <c r="AD3" s="52">
         <f t="shared" si="0"/>
         <v>44117</v>
       </c>
-      <c r="AE3" s="58">
+      <c r="AE3" s="52">
         <f t="shared" si="0"/>
         <v>44118</v>
       </c>
@@ -1388,11 +1439,11 @@
         <f t="shared" si="3"/>
         <v>44167</v>
       </c>
-      <c r="CC3" s="69">
+      <c r="CC3" s="63">
         <f t="shared" si="3"/>
         <v>44168</v>
       </c>
-      <c r="CD3" s="66">
+      <c r="CD3" s="60">
         <f t="shared" si="3"/>
         <v>44169</v>
       </c>
@@ -1404,11 +1455,11 @@
         <f t="shared" si="3"/>
         <v>44171</v>
       </c>
-      <c r="CG3" s="63">
+      <c r="CG3" s="57">
         <f t="shared" si="3"/>
         <v>44172</v>
       </c>
-      <c r="CH3" s="63">
+      <c r="CH3" s="57">
         <f t="shared" si="3"/>
         <v>44173</v>
       </c>
@@ -1561,7 +1612,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="4" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:123" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1591,12 +1642,12 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="56"/>
+      <c r="Z4" s="50"/>
       <c r="AA4" s="26"/>
       <c r="AB4" s="26"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
       <c r="AF4" s="11"/>
       <c r="AG4" s="18"/>
       <c r="AH4" s="26"/>
@@ -1612,7 +1663,7 @@
       <c r="AR4" s="11"/>
       <c r="AS4" s="11"/>
       <c r="AT4" s="11"/>
-      <c r="AU4" s="61"/>
+      <c r="AU4" s="55"/>
       <c r="AV4" s="26"/>
       <c r="AW4" s="26"/>
       <c r="AX4" s="11"/>
@@ -1646,12 +1697,12 @@
       <c r="BZ4" s="11"/>
       <c r="CA4" s="11"/>
       <c r="CB4" s="11"/>
-      <c r="CC4" s="70"/>
-      <c r="CD4" s="67"/>
+      <c r="CC4" s="64"/>
+      <c r="CD4" s="61"/>
       <c r="CE4" s="26"/>
       <c r="CF4" s="26"/>
-      <c r="CG4" s="64"/>
-      <c r="CH4" s="64"/>
+      <c r="CG4" s="58"/>
+      <c r="CH4" s="58"/>
       <c r="CI4" s="11"/>
       <c r="CJ4" s="11"/>
       <c r="CK4" s="18"/>
@@ -1661,11 +1712,11 @@
       <c r="CO4" s="11"/>
       <c r="CP4" s="11"/>
       <c r="CQ4" s="18"/>
-      <c r="CR4" s="67"/>
+      <c r="CR4" s="61"/>
       <c r="CS4" s="26"/>
       <c r="CT4" s="26"/>
-      <c r="CU4" s="61"/>
-      <c r="CV4" s="61"/>
+      <c r="CU4" s="55"/>
+      <c r="CV4" s="55"/>
       <c r="CW4" s="26"/>
       <c r="CX4" s="26"/>
       <c r="CY4" s="26"/>
@@ -1690,13 +1741,13 @@
       <c r="DR4" s="11"/>
       <c r="DS4" s="16"/>
     </row>
-    <row r="5" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:123" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="16"/>
@@ -1717,15 +1768,17 @@
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
       <c r="V5" s="22"/>
-      <c r="W5" s="11"/>
+      <c r="W5" s="11">
+        <v>6</v>
+      </c>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
-      <c r="Z5" s="56"/>
+      <c r="Z5" s="50"/>
       <c r="AA5" s="26"/>
       <c r="AB5" s="26"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="26"/>
@@ -1741,7 +1794,7 @@
       <c r="AR5" s="11"/>
       <c r="AS5" s="11"/>
       <c r="AT5" s="11"/>
-      <c r="AU5" s="61"/>
+      <c r="AU5" s="55"/>
       <c r="AV5" s="26"/>
       <c r="AW5" s="26"/>
       <c r="AX5" s="11"/>
@@ -1775,12 +1828,12 @@
       <c r="BZ5" s="11"/>
       <c r="CA5" s="11"/>
       <c r="CB5" s="11"/>
-      <c r="CC5" s="70"/>
-      <c r="CD5" s="67"/>
+      <c r="CC5" s="64"/>
+      <c r="CD5" s="61"/>
       <c r="CE5" s="26"/>
       <c r="CF5" s="26"/>
-      <c r="CG5" s="64"/>
-      <c r="CH5" s="64"/>
+      <c r="CG5" s="58"/>
+      <c r="CH5" s="58"/>
       <c r="CI5" s="11"/>
       <c r="CJ5" s="11"/>
       <c r="CK5" s="18"/>
@@ -1790,11 +1843,11 @@
       <c r="CO5" s="11"/>
       <c r="CP5" s="11"/>
       <c r="CQ5" s="18"/>
-      <c r="CR5" s="67"/>
+      <c r="CR5" s="61"/>
       <c r="CS5" s="26"/>
       <c r="CT5" s="26"/>
-      <c r="CU5" s="61"/>
-      <c r="CV5" s="61"/>
+      <c r="CU5" s="55"/>
+      <c r="CV5" s="55"/>
       <c r="CW5" s="26"/>
       <c r="CX5" s="26"/>
       <c r="CY5" s="26"/>
@@ -1819,7 +1872,7 @@
       <c r="DR5" s="11"/>
       <c r="DS5" s="16"/>
     </row>
-    <row r="6" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:123" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
@@ -1849,12 +1902,12 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="56"/>
+      <c r="Z6" s="50"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="26"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
       <c r="AF6" s="11"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="26"/>
@@ -1870,7 +1923,7 @@
       <c r="AR6" s="11"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
-      <c r="AU6" s="61"/>
+      <c r="AU6" s="55"/>
       <c r="AV6" s="26"/>
       <c r="AW6" s="26"/>
       <c r="AX6" s="11"/>
@@ -1904,12 +1957,12 @@
       <c r="BZ6" s="11"/>
       <c r="CA6" s="11"/>
       <c r="CB6" s="11"/>
-      <c r="CC6" s="70"/>
-      <c r="CD6" s="67"/>
+      <c r="CC6" s="64"/>
+      <c r="CD6" s="61"/>
       <c r="CE6" s="26"/>
       <c r="CF6" s="26"/>
-      <c r="CG6" s="64"/>
-      <c r="CH6" s="64"/>
+      <c r="CG6" s="58"/>
+      <c r="CH6" s="58"/>
       <c r="CI6" s="11"/>
       <c r="CJ6" s="11"/>
       <c r="CK6" s="18"/>
@@ -1919,11 +1972,11 @@
       <c r="CO6" s="11"/>
       <c r="CP6" s="11"/>
       <c r="CQ6" s="18"/>
-      <c r="CR6" s="67"/>
+      <c r="CR6" s="61"/>
       <c r="CS6" s="26"/>
       <c r="CT6" s="26"/>
-      <c r="CU6" s="61"/>
-      <c r="CV6" s="61"/>
+      <c r="CU6" s="55"/>
+      <c r="CV6" s="55"/>
       <c r="CW6" s="26"/>
       <c r="CX6" s="26"/>
       <c r="CY6" s="26"/>
@@ -1948,7 +2001,7 @@
       <c r="DR6" s="11"/>
       <c r="DS6" s="16"/>
     </row>
-    <row r="7" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:123" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>2</v>
       </c>
@@ -1978,12 +2031,12 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
-      <c r="Z7" s="56"/>
+      <c r="Z7" s="50"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="26"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="18"/>
       <c r="AH7" s="26"/>
@@ -1999,7 +2052,7 @@
       <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
-      <c r="AU7" s="61"/>
+      <c r="AU7" s="55"/>
       <c r="AV7" s="26"/>
       <c r="AW7" s="26"/>
       <c r="AX7" s="11"/>
@@ -2033,12 +2086,12 @@
       <c r="BZ7" s="11"/>
       <c r="CA7" s="11"/>
       <c r="CB7" s="11"/>
-      <c r="CC7" s="70"/>
-      <c r="CD7" s="67"/>
+      <c r="CC7" s="64"/>
+      <c r="CD7" s="61"/>
       <c r="CE7" s="26"/>
       <c r="CF7" s="26"/>
-      <c r="CG7" s="64"/>
-      <c r="CH7" s="64"/>
+      <c r="CG7" s="58"/>
+      <c r="CH7" s="58"/>
       <c r="CI7" s="11"/>
       <c r="CJ7" s="11"/>
       <c r="CK7" s="18"/>
@@ -2048,11 +2101,11 @@
       <c r="CO7" s="11"/>
       <c r="CP7" s="11"/>
       <c r="CQ7" s="18"/>
-      <c r="CR7" s="67"/>
+      <c r="CR7" s="61"/>
       <c r="CS7" s="26"/>
       <c r="CT7" s="26"/>
-      <c r="CU7" s="61"/>
-      <c r="CV7" s="61"/>
+      <c r="CU7" s="55"/>
+      <c r="CV7" s="55"/>
       <c r="CW7" s="26"/>
       <c r="CX7" s="26"/>
       <c r="CY7" s="26"/>
@@ -2077,7 +2130,7 @@
       <c r="DR7" s="11"/>
       <c r="DS7" s="16"/>
     </row>
-    <row r="8" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:123" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="10">
         <f t="shared" si="7"/>
@@ -2105,12 +2158,12 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
-      <c r="Z8" s="56"/>
+      <c r="Z8" s="50"/>
       <c r="AA8" s="26"/>
       <c r="AB8" s="26"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="18"/>
       <c r="AH8" s="26"/>
@@ -2126,7 +2179,7 @@
       <c r="AR8" s="11"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
-      <c r="AU8" s="61"/>
+      <c r="AU8" s="55"/>
       <c r="AV8" s="26"/>
       <c r="AW8" s="26"/>
       <c r="AX8" s="11"/>
@@ -2160,12 +2213,12 @@
       <c r="BZ8" s="11"/>
       <c r="CA8" s="11"/>
       <c r="CB8" s="11"/>
-      <c r="CC8" s="70"/>
-      <c r="CD8" s="67"/>
+      <c r="CC8" s="64"/>
+      <c r="CD8" s="61"/>
       <c r="CE8" s="26"/>
       <c r="CF8" s="26"/>
-      <c r="CG8" s="64"/>
-      <c r="CH8" s="64"/>
+      <c r="CG8" s="58"/>
+      <c r="CH8" s="58"/>
       <c r="CI8" s="11"/>
       <c r="CJ8" s="11"/>
       <c r="CK8" s="18"/>
@@ -2175,11 +2228,11 @@
       <c r="CO8" s="11"/>
       <c r="CP8" s="11"/>
       <c r="CQ8" s="18"/>
-      <c r="CR8" s="67"/>
+      <c r="CR8" s="61"/>
       <c r="CS8" s="26"/>
       <c r="CT8" s="26"/>
-      <c r="CU8" s="61"/>
-      <c r="CV8" s="61"/>
+      <c r="CU8" s="55"/>
+      <c r="CV8" s="55"/>
       <c r="CW8" s="26"/>
       <c r="CX8" s="26"/>
       <c r="CY8" s="26"/>
@@ -2204,7 +2257,7 @@
       <c r="DR8" s="11"/>
       <c r="DS8" s="16"/>
     </row>
-    <row r="9" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:123" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="10">
         <f t="shared" si="7"/>
@@ -2232,12 +2285,12 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
-      <c r="Z9" s="56"/>
+      <c r="Z9" s="50"/>
       <c r="AA9" s="26"/>
       <c r="AB9" s="26"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
       <c r="AF9" s="11"/>
       <c r="AG9" s="18"/>
       <c r="AH9" s="26"/>
@@ -2253,7 +2306,7 @@
       <c r="AR9" s="11"/>
       <c r="AS9" s="11"/>
       <c r="AT9" s="11"/>
-      <c r="AU9" s="61"/>
+      <c r="AU9" s="55"/>
       <c r="AV9" s="26"/>
       <c r="AW9" s="26"/>
       <c r="AX9" s="11"/>
@@ -2287,12 +2340,12 @@
       <c r="BZ9" s="11"/>
       <c r="CA9" s="11"/>
       <c r="CB9" s="11"/>
-      <c r="CC9" s="70"/>
-      <c r="CD9" s="67"/>
+      <c r="CC9" s="64"/>
+      <c r="CD9" s="61"/>
       <c r="CE9" s="26"/>
       <c r="CF9" s="26"/>
-      <c r="CG9" s="64"/>
-      <c r="CH9" s="64"/>
+      <c r="CG9" s="58"/>
+      <c r="CH9" s="58"/>
       <c r="CI9" s="11"/>
       <c r="CJ9" s="11"/>
       <c r="CK9" s="18"/>
@@ -2302,11 +2355,11 @@
       <c r="CO9" s="11"/>
       <c r="CP9" s="11"/>
       <c r="CQ9" s="18"/>
-      <c r="CR9" s="67"/>
+      <c r="CR9" s="61"/>
       <c r="CS9" s="26"/>
       <c r="CT9" s="26"/>
-      <c r="CU9" s="61"/>
-      <c r="CV9" s="61"/>
+      <c r="CU9" s="55"/>
+      <c r="CV9" s="55"/>
       <c r="CW9" s="26"/>
       <c r="CX9" s="26"/>
       <c r="CY9" s="26"/>
@@ -2331,13 +2384,13 @@
       <c r="DR9" s="11"/>
       <c r="DS9" s="16"/>
     </row>
-    <row r="10" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:123" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" ref="C10:AH10" si="8">SUM(C4:C9)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="8"/>
@@ -2417,7 +2470,7 @@
       </c>
       <c r="W10" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X10" s="10">
         <f t="shared" si="8"/>
@@ -2427,7 +2480,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="57">
+      <c r="Z10" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2439,15 +2492,15 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="60">
+      <c r="AC10" s="54">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="60">
+      <c r="AD10" s="54">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="60">
+      <c r="AE10" s="54">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2511,7 +2564,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AU10" s="62">
+      <c r="AU10" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2647,11 +2700,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="CC10" s="71">
+      <c r="CC10" s="65">
         <f t="shared" ref="CC10" si="16">SUM(CC4:CC9)</f>
         <v>0</v>
       </c>
-      <c r="CD10" s="68">
+      <c r="CD10" s="62">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -2663,11 +2716,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="CG10" s="65">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CH10" s="65">
+      <c r="CG10" s="59">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CH10" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -2719,11 +2772,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="CU10" s="62">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CV10" s="62">
+      <c r="CU10" s="56">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CV10" s="56">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -2820,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:123" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="E11" s="24" t="s">
         <v>24</v>
@@ -2923,7 +2976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:123" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="E12" s="24" t="s">
         <v>23</v>
@@ -2988,7 +3041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:123" x14ac:dyDescent="0.25">
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
       <c r="D13" s="43"/>
@@ -3017,7 +3070,7 @@
       <c r="CV13" s="12"/>
       <c r="CW13" s="12"/>
     </row>
-    <row r="14" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:123" x14ac:dyDescent="0.25">
       <c r="CR14" s="48" t="s">
         <v>21</v>
       </c>
@@ -3026,6 +3079,35 @@
       <c r="CU14" s="12"/>
       <c r="CV14" s="12"/>
       <c r="CW14" s="12"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W21" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/documentation/IW_Control_Grupo.xlsx
+++ b/documentation/IW_Control_Grupo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chispita\Documents\Cursos\Quinto\IngenieriaWeb\UrlShortener\UrlShortener\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2945A9DB-96FE-47D1-923D-0AB1E706B0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B727A1-3450-4033-A5A2-B60ED5EF6E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Descripción de la actividad</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2 Diagrama componentes</t>
   </si>
 </sst>
 </file>
@@ -846,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:DS21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="BA21" sqref="BA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1621,7 @@
       </c>
       <c r="C4" s="10">
         <f t="shared" ref="C4:C9" si="7">SUM(D4:DR4)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="16"/>
@@ -1669,7 +1672,9 @@
       <c r="AX4" s="11"/>
       <c r="AY4" s="11"/>
       <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
+      <c r="BA4" s="11">
+        <v>6</v>
+      </c>
       <c r="BB4" s="16"/>
       <c r="BC4" s="26"/>
       <c r="BD4" s="26"/>
@@ -2390,7 +2395,7 @@
       </c>
       <c r="C10" s="10">
         <f t="shared" ref="C10:AH10" si="8">SUM(C4:C9)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="8"/>
@@ -2590,7 +2595,7 @@
       </c>
       <c r="BA10" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB10" s="17">
         <f t="shared" si="11"/>
@@ -3080,31 +3085,40 @@
       <c r="CV14" s="12"/>
       <c r="CW14" s="12"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
       <c r="W18" t="s">
         <v>38</v>
       </c>
+      <c r="BA18" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="W19" t="s">
         <v>38</v>
       </c>
+      <c r="BA19" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="W20" t="s">
         <v>38</v>
       </c>
+      <c r="BA20" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:53" x14ac:dyDescent="0.25">
       <c r="W21" t="s">
         <v>39</v>
       </c>
